--- a/python3_api_framework/TestDatas/1.xlsx
+++ b/python3_api_framework/TestDatas/1.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="case_data" sheetId="1" r:id="rId1"/>
+    <sheet name="init_data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>id</t>
   </si>
@@ -55,7 +56,25 @@
     <t>http://119.23.241.154:8080/futureloan/mvc/api/member/register</t>
   </si>
   <si>
-    <t>{'mobilephone':'18301565500','pwd':'123456','regname':''}</t>
+    <r>
+      <t>{'mobilephone':'$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>init_phone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>','pwd':'123456','regname':''}</t>
+    </r>
   </si>
   <si>
     <t>{"status":0,"code":"20110","data":null,"msg":"手机号码已被注册"}</t>
@@ -64,25 +83,49 @@
     <t>成功注册-有昵称</t>
   </si>
   <si>
-    <t>http://119.23.241.154:8081/futureloan/mvc/api/member/register</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'18301565501','pwd':'123456','regname':'星空'}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
+    <r>
+      <t>{'mobilephone':'$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>phone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>','pwd':'123456','regname':'星空'}</t>
+    </r>
   </si>
   <si>
     <t>用户名为空</t>
   </si>
   <si>
-    <t>http://119.23.241.154:8082/futureloan/mvc/api/member/register</t>
-  </si>
-  <si>
     <t>{'mobilephone':'','pwd':'123456','regname':'星空'}</t>
   </si>
   <si>
     <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>$init_phone</t>
+  </si>
+  <si>
+    <t>$phone</t>
+  </si>
+  <si>
+    <t>phone1</t>
   </si>
 </sst>
 </file>
@@ -90,12 +133,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,24 +147,129 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,116 +283,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -257,187 +307,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,6 +498,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -469,38 +549,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,25 +585,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,10 +606,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,133 +618,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -708,7 +758,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1032,8 +1082,8 @@
   <sheetPr/>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -1091,10 +1141,10 @@
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -1115,14 +1165,14 @@
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="1:8">
@@ -1131,7 +1181,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
@@ -1139,14 +1189,14 @@
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>20</v>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1155,10 +1205,57 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="http://119.23.241.154:8080/futureloan/mvc/api/member/register" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register"/>
-    <hyperlink ref="F3" r:id="rId1" display="http://119.23.241.154:8081/futureloan/mvc/api/member/register" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register"/>
-    <hyperlink ref="F4" r:id="rId1" display="http://119.23.241.154:8082/futureloan/mvc/api/member/register" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register"/>
+    <hyperlink ref="F3" r:id="rId1" display="http://119.23.241.154:8080/futureloan/mvc/api/member/register" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register"/>
+    <hyperlink ref="F4" r:id="rId1" display="http://119.23.241.154:8080/futureloan/mvc/api/member/register" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="18.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>18301565568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/python3_api_framework/TestDatas/1.xlsx
+++ b/python3_api_framework/TestDatas/1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="23280" windowHeight="10530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="case_data" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>id</t>
   </si>
@@ -56,52 +56,16 @@
     <t>http://119.23.241.154:8080/futureloan/mvc/api/member/register</t>
   </si>
   <si>
-    <r>
-      <t>{'mobilephone':'$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <charset val="134"/>
-      </rPr>
-      <t>init_phone</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>','pwd':'123456','regname':''}</t>
-    </r>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20110","data":null,"msg":"手机号码已被注册"}</t>
+    <t>{'mobilephone':'$init_phone','pwd':'123456','regname':''}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
   </si>
   <si>
     <t>成功注册-有昵称</t>
   </si>
   <si>
-    <r>
-      <t>{'mobilephone':'$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <charset val="134"/>
-      </rPr>
-      <t>phone</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>','pwd':'123456','regname':'星空'}</t>
-    </r>
+    <t>{'mobilephone':'$phone','pwd':'123456','regname':'星空'}</t>
   </si>
   <si>
     <t>用户名为空</t>
@@ -120,6 +84,9 @@
   </si>
   <si>
     <t>$init_phone</t>
+  </si>
+  <si>
+    <t>18301565608</t>
   </si>
   <si>
     <t>$phone</t>
@@ -138,7 +105,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,15 +114,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,51 +130,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -238,37 +162,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -283,8 +176,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -294,7 +254,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -307,13 +267,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,169 +435,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,51 +458,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -564,6 +479,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -575,11 +505,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,158 +549,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6"/>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8"/>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3"/>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5"/>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -757,9 +623,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1083,119 +946,117 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="16.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="33" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="27" style="3" customWidth="1"/>
+    <col min="7" max="7" width="33.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="33" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="40.5" spans="1:8">
-      <c r="A2" s="1">
+    <row r="2" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" ht="40.5" spans="1:8">
-      <c r="A3" s="1">
+    <row r="3" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" ht="40.5" spans="1:8">
-      <c r="A4" s="1">
+    <row r="4" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1219,39 +1080,40 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="18.375" customWidth="1"/>
-    <col min="2" max="2" width="18.875" customWidth="1"/>
+    <col min="1" max="1" width="18.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2">
-        <v>18301565568</v>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>23</v>
+      <c r="A3" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>24</v>
+      <c r="A4" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/python3_api_framework/TestDatas/1.xlsx
+++ b/python3_api_framework/TestDatas/1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23280" windowHeight="10530" activeTab="1"/>
+    <workbookView activeTab="0" windowHeight="10950" windowWidth="23280"/>
   </bookViews>
   <sheets>
-    <sheet name="case_data" sheetId="1" r:id="rId1"/>
-    <sheet name="init_data" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="case_data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="init_data" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>id</t>
   </si>
@@ -77,6 +77,42 @@
     <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
   </si>
   <si>
+    <t>充值</t>
+  </si>
+  <si>
+    <t>充值成功</t>
+  </si>
+  <si>
+    <t>recharge_success</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>http://119.23.241.154:8080/futureloan/mvc/api/member/recharge</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'$init_phone','amount':'100'}</t>
+  </si>
+  <si>
+    <t>leaveamount":"100.00"</t>
+  </si>
+  <si>
+    <t>$user_id=.*"id":(\d*).*</t>
+  </si>
+  <si>
+    <t>获取用户所有投资记录</t>
+  </si>
+  <si>
+    <t>getInvestsByMemberId</t>
+  </si>
+  <si>
+    <t>http://119.23.241.154:8080/futureloan/mvc/api/financelog/getFinanceLogList</t>
+  </si>
+  <si>
+    <t>{'memberId':'$user_id'}</t>
+  </si>
+  <si>
     <t>key</t>
   </si>
   <si>
@@ -86,7 +122,7 @@
     <t>$init_phone</t>
   </si>
   <si>
-    <t>18301565608</t>
+    <t>18301565626</t>
   </si>
   <si>
     <t>$phone</t>
@@ -100,348 +136,348 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="164"/>
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ " numFmtId="165"/>
+    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
+    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
   </numFmts>
   <fonts count="20">
     <font>
-      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,17 +500,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,11 +538,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,168 +584,135 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6"/>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8"/>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3"/>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5"/>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164"/>
+    <xf borderId="0" fillId="12" fontId="4" numFmtId="0"/>
+    <xf borderId="3" fillId="11" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="166"/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="13" fontId="10" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="167"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0"/>
+    <xf borderId="2" fillId="10" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="9" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0"/>
+    <xf borderId="0" fillId="17" fontId="2" numFmtId="0"/>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="0"/>
+    <xf borderId="6" fillId="19" fontId="14" numFmtId="0"/>
+    <xf borderId="3" fillId="19" fontId="15" numFmtId="0"/>
+    <xf borderId="7" fillId="22" fontId="16" numFmtId="0"/>
+    <xf borderId="0" fillId="23" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="0"/>
+    <xf borderId="5" fillId="0" fontId="13" numFmtId="0"/>
+    <xf borderId="8" fillId="0" fontId="17" numFmtId="0"/>
+    <xf borderId="0" fillId="24" fontId="18" numFmtId="0"/>
+    <xf borderId="0" fillId="25" fontId="19" numFmtId="0"/>
+    <xf borderId="0" fillId="26" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="18" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="20" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="21" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="15" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="16" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="14" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="27" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="28" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="29" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="30" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="31" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="32" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
+    <cellStyle builtinId="20" name="输入" xfId="3"/>
+    <cellStyle builtinId="4" name="货币" xfId="4"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
+    <cellStyle builtinId="27" name="差" xfId="7"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle builtinId="8" name="超链接" xfId="10"/>
+    <cellStyle builtinId="5" name="百分比" xfId="11"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
+    <cellStyle builtinId="10" name="注释" xfId="13"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
+    <cellStyle builtinId="15" name="标题" xfId="17"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
+    <cellStyle builtinId="21" name="输出" xfId="24"/>
+    <cellStyle builtinId="22" name="计算" xfId="25"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
+    <cellStyle builtinId="25" name="汇总" xfId="30"/>
+    <cellStyle builtinId="26" name="好" xfId="31"/>
+    <cellStyle builtinId="28" name="适中" xfId="32"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -941,123 +972,193 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="27" style="3" customWidth="1"/>
-    <col min="7" max="7" width="33.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="33" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="3" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="2" width="9"/>
+    <col customWidth="1" max="2" min="2" style="2" width="16.25"/>
+    <col customWidth="1" max="3" min="3" style="2" width="12.625"/>
+    <col customWidth="1" max="4" min="4" style="2" width="18.375"/>
+    <col customWidth="1" max="5" min="5" style="2" width="15.875"/>
+    <col customWidth="1" max="6" min="6" style="2" width="27"/>
+    <col customWidth="1" max="7" min="7" style="2" width="33.5"/>
+    <col customWidth="1" max="8" min="8" style="2" width="33"/>
+    <col customWidth="1" max="16384" min="9" style="2" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="40.5" customHeight="1" spans="1:8">
-      <c r="A2" s="3">
+    <row customHeight="1" ht="40.5" r="2" s="1" spans="1:10">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="I2" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" ht="40.5" customHeight="1" spans="1:8">
-      <c r="A3" s="3">
+    <row customHeight="1" ht="40.5" r="3" s="1" spans="1:10">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="I3" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" ht="40.5" customHeight="1" spans="1:8">
-      <c r="A4" s="3">
+    <row customHeight="1" ht="40.5" r="4" s="1" spans="1:10">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="40.5" r="5" s="2" spans="1:10">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="6" s="1" spans="1:10">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1065,59 +1166,62 @@
     <mergeCell ref="B2:B4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="http://119.23.241.154:8080/futureloan/mvc/api/member/register" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register"/>
-    <hyperlink ref="F3" r:id="rId1" display="http://119.23.241.154:8080/futureloan/mvc/api/member/register" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register"/>
-    <hyperlink ref="F4" r:id="rId1" display="http://119.23.241.154:8080/futureloan/mvc/api/member/register" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://119.23.241.154:8080/futureloan/mvc/api/member/register" ref="F2" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://119.23.241.154:8080/futureloan/mvc/api/member/register" ref="F3" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://119.23.241.154:8080/futureloan/mvc/api/member/register" ref="F4" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://119.23.241.154:8080/futureloan/mvc/api/member/recharge" ref="F5" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/recharge" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://119.23.241.154:8080/futureloan/mvc/api/financelog/getFinanceLogList" ref="F6" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/financelog/getFinanceLogList" r:id="rId5"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col customWidth="1" max="1" min="1" style="1" width="18.375"/>
+    <col customWidth="1" max="2" min="2" style="1" width="18.875"/>
+    <col customWidth="1" max="16384" min="3" style="1" width="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>21</v>
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
-        <v>24</v>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
-        <v>25</v>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>